--- a/data/trans_orig/P19C07-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19C07-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>17264</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10572</v>
+        <v>10829</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26613</v>
+        <v>26361</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02504306995120526</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01533623274419138</v>
+        <v>0.01570924868865585</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03860453417535516</v>
+        <v>0.03823971239801029</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>33</v>
@@ -765,19 +765,19 @@
         <v>32338</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>23288</v>
+        <v>23076</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>45418</v>
+        <v>45373</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03372151372679975</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02428488688127249</v>
+        <v>0.02406367972431605</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04736215687095544</v>
+        <v>0.04731521758833891</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>51</v>
@@ -786,19 +786,19 @@
         <v>49601</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>37664</v>
+        <v>37922</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>63119</v>
+        <v>63561</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0300919978186258</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02284981096249544</v>
+        <v>0.02300653917346368</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03829265881232977</v>
+        <v>0.03856108616385175</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>672101</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>662752</v>
+        <v>663004</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>678793</v>
+        <v>678536</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9749569300487947</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9613954658246455</v>
+        <v>0.9617602876019894</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9846637672558087</v>
+        <v>0.9842907513113441</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>914</v>
@@ -836,19 +836,19 @@
         <v>926621</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>913541</v>
+        <v>913586</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>935671</v>
+        <v>935883</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9662784862732002</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9526378431290446</v>
+        <v>0.9526847824116611</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9757151131187275</v>
+        <v>0.9759363202756839</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1592</v>
@@ -857,19 +857,19 @@
         <v>1598723</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1585205</v>
+        <v>1584763</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1610660</v>
+        <v>1610402</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9699080021813742</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9617073411876697</v>
+        <v>0.9614389138361484</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9771501890375044</v>
+        <v>0.9769934608265365</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>53345</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>39835</v>
+        <v>40816</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>67845</v>
+        <v>69886</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04058378189269074</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03030544683580235</v>
+        <v>0.03105168747265295</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05161446229941078</v>
+        <v>0.05316754963969121</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>54</v>
@@ -982,19 +982,19 @@
         <v>54281</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>42317</v>
+        <v>41470</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>71489</v>
+        <v>72022</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03952862184769265</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03081639805120848</v>
+        <v>0.030199782522567</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05206025130328217</v>
+        <v>0.0524486702040026</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>106</v>
@@ -1003,19 +1003,19 @@
         <v>107626</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>90863</v>
+        <v>89359</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>131305</v>
+        <v>129297</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04004466984346156</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03380776509992448</v>
+        <v>0.03324819201934784</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04885520999821783</v>
+        <v>0.04810808331202346</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1261103</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1246603</v>
+        <v>1244562</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1274613</v>
+        <v>1273632</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9594162181073093</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9483855377005892</v>
+        <v>0.9468324503603087</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9696945531641976</v>
+        <v>0.9689483125273469</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1290</v>
@@ -1053,19 +1053,19 @@
         <v>1318914</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1301706</v>
+        <v>1301173</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1330878</v>
+        <v>1331725</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9604713781523073</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9479397486967184</v>
+        <v>0.9475513297959974</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9691836019487916</v>
+        <v>0.9698002174774331</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2519</v>
@@ -1074,19 +1074,19 @@
         <v>2580017</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2556338</v>
+        <v>2558346</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2596780</v>
+        <v>2598284</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9599553301565384</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9511447900017819</v>
+        <v>0.9518919166879765</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9661922349000756</v>
+        <v>0.9667518079806522</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>13712</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7709</v>
+        <v>8201</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22680</v>
+        <v>22896</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03040825662289897</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01709659268892438</v>
+        <v>0.01818644127343953</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05029691950315181</v>
+        <v>0.05077432416479689</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -1199,19 +1199,19 @@
         <v>8473</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3834</v>
+        <v>3908</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16495</v>
+        <v>16221</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02072798439430314</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.009379239919089</v>
+        <v>0.009559264486485038</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04035114956486534</v>
+        <v>0.03968216521246185</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>22</v>
@@ -1220,19 +1220,19 @@
         <v>22185</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13959</v>
+        <v>14006</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>32930</v>
+        <v>33216</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02580539721533912</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01623682746821122</v>
+        <v>0.01629174590314381</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03830315648830889</v>
+        <v>0.03863654273407331</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>437217</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>428249</v>
+        <v>428033</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>443220</v>
+        <v>442728</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9695917433771011</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9497030804968479</v>
+        <v>0.9492256758352039</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9829034073110756</v>
+        <v>0.9818135587265606</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>380</v>
@@ -1270,19 +1270,19 @@
         <v>400310</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>392288</v>
+        <v>392562</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>404949</v>
+        <v>404875</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9792720156056969</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9596488504351326</v>
+        <v>0.9603178347875388</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.990620760080911</v>
+        <v>0.990440735513515</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>796</v>
@@ -1291,19 +1291,19 @@
         <v>837527</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>826782</v>
+        <v>826496</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>845753</v>
+        <v>845706</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9741946027846609</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9616968435116912</v>
+        <v>0.9613634572659266</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9837631725317888</v>
+        <v>0.9837082540968561</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>84321</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>67332</v>
+        <v>68605</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>103906</v>
+        <v>106707</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03435026937143167</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02742923039110737</v>
+        <v>0.02794781488571579</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04232869421713061</v>
+        <v>0.04346974825348331</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>95</v>
@@ -1416,19 +1416,19 @@
         <v>95091</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>75554</v>
+        <v>77640</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>114079</v>
+        <v>116482</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03469299096635507</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02756520095078297</v>
+        <v>0.02832608797436155</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04162041053303379</v>
+        <v>0.04249731685918948</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>179</v>
@@ -1437,19 +1437,19 @@
         <v>179412</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>154485</v>
+        <v>154006</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>206114</v>
+        <v>204304</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03453106929566539</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02973329122487542</v>
+        <v>0.02964120030179159</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03967023052524257</v>
+        <v>0.03932184875387561</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>2370421</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2350836</v>
+        <v>2348035</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2387410</v>
+        <v>2386137</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9656497306285683</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9576713057828695</v>
+        <v>0.9565302517465167</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9725707696088927</v>
+        <v>0.9720521851142843</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2584</v>
@@ -1487,19 +1487,19 @@
         <v>2645846</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2626858</v>
+        <v>2624455</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2665383</v>
+        <v>2663297</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.965307009033645</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9583795894669664</v>
+        <v>0.9575026831408102</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.972434799049217</v>
+        <v>0.9716739120256385</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4907</v>
@@ -1508,19 +1508,19 @@
         <v>5016267</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4989565</v>
+        <v>4991375</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5041194</v>
+        <v>5041673</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9654689307043346</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9603297694747568</v>
+        <v>0.9606781512461239</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9702667087751243</v>
+        <v>0.9703587996982082</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>13635</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7215</v>
+        <v>7238</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24024</v>
+        <v>24189</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01749965379082278</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009259326760723162</v>
+        <v>0.009289247252676843</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03083267357595477</v>
+        <v>0.03104409773939202</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -1872,19 +1872,19 @@
         <v>21162</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13199</v>
+        <v>13744</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>33964</v>
+        <v>31867</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01875669908160943</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01169859402947709</v>
+        <v>0.01218146194453752</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03010325045331748</v>
+        <v>0.02824493955198685</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>32</v>
@@ -1893,19 +1893,19 @@
         <v>34797</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>24505</v>
+        <v>23496</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>48808</v>
+        <v>48489</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01824319972314621</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01284723771793435</v>
+        <v>0.0123184681182502</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0255883611953164</v>
+        <v>0.02542109739218443</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>765539</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>755150</v>
+        <v>754985</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>771959</v>
+        <v>771936</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9825003462091773</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.969167326424045</v>
+        <v>0.9689559022606079</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9907406732392767</v>
+        <v>0.990710752747323</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1032</v>
@@ -1943,19 +1943,19 @@
         <v>1107080</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1094278</v>
+        <v>1096375</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1115043</v>
+        <v>1114498</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9812433009183905</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9698967495466825</v>
+        <v>0.9717550604480131</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.988301405970523</v>
+        <v>0.9878185380554625</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1753</v>
@@ -1964,19 +1964,19 @@
         <v>1872618</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1858607</v>
+        <v>1858926</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1882910</v>
+        <v>1883919</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9817568002768537</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9744116388046835</v>
+        <v>0.9745789026078155</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9871527622820656</v>
+        <v>0.9876815318817498</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>64067</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>49397</v>
+        <v>49308</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>83279</v>
+        <v>80526</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03794814769972764</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02925864956831347</v>
+        <v>0.02920602595037642</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0493276605253561</v>
+        <v>0.04769687869208172</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>68</v>
@@ -2089,19 +2089,19 @@
         <v>73135</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>56817</v>
+        <v>59089</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>91645</v>
+        <v>93521</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04598900465705583</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03572764888447234</v>
+        <v>0.03715622191507264</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05762826286789165</v>
+        <v>0.05880767802711129</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>128</v>
@@ -2110,19 +2110,19 @@
         <v>137202</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>114956</v>
+        <v>114071</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>164280</v>
+        <v>162866</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0418484005220765</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03506315407732373</v>
+        <v>0.03479314797189187</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05010744599679387</v>
+        <v>0.04967607157010936</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1624211</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1604999</v>
+        <v>1607752</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1638881</v>
+        <v>1638970</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9620518523002723</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9506723394746438</v>
+        <v>0.9523031213079183</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9707413504316865</v>
+        <v>0.9707939740496235</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1409</v>
@@ -2160,19 +2160,19 @@
         <v>1517143</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1498633</v>
+        <v>1496757</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1533461</v>
+        <v>1531189</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9540109953429442</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9423717371321083</v>
+        <v>0.9411923219728888</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9642723511155281</v>
+        <v>0.9628437780849278</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2946</v>
@@ -2181,19 +2181,19 @@
         <v>3141353</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3114275</v>
+        <v>3115689</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3163599</v>
+        <v>3164484</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9581515994779235</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.949892554003206</v>
+        <v>0.9503239284298906</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9649368459226761</v>
+        <v>0.965206852028108</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>19692</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12453</v>
+        <v>12378</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>32136</v>
+        <v>30631</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04453791787165413</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02816556211735594</v>
+        <v>0.0279953193346116</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07268451329052851</v>
+        <v>0.06927891919661625</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -2306,19 +2306,19 @@
         <v>18642</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10843</v>
+        <v>11239</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>29824</v>
+        <v>29103</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04399677197751478</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02558923493947894</v>
+        <v>0.02652452786582041</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07038647629423389</v>
+        <v>0.06868454660505102</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>36</v>
@@ -2327,19 +2327,19 @@
         <v>38334</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>27370</v>
+        <v>27427</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>51707</v>
+        <v>53146</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04427309819965197</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03160994155772413</v>
+        <v>0.03167581260803592</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05971810602630605</v>
+        <v>0.06137960324903401</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>422442</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>409998</v>
+        <v>411503</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>429681</v>
+        <v>429756</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9554620821283458</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9273154867094714</v>
+        <v>0.9307210808033839</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9718344378826441</v>
+        <v>0.9720046806653885</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>365</v>
@@ -2377,19 +2377,19 @@
         <v>405081</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>393899</v>
+        <v>394620</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>412880</v>
+        <v>412484</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9560032280224852</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9296135237057661</v>
+        <v>0.9313154533949495</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.974410765060521</v>
+        <v>0.9734754721341797</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>747</v>
@@ -2398,19 +2398,19 @@
         <v>827523</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>814150</v>
+        <v>812711</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>838487</v>
+        <v>838430</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.955726901800348</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9402818939736937</v>
+        <v>0.9386203967509659</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9683900584422759</v>
+        <v>0.9683241873919638</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>97394</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>78845</v>
+        <v>77519</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>120527</v>
+        <v>119346</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03347350152894691</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02709819280301146</v>
+        <v>0.02664266771741827</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04142402509625503</v>
+        <v>0.04101811625950473</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>105</v>
@@ -2523,19 +2523,19 @@
         <v>112940</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>91890</v>
+        <v>92717</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>135017</v>
+        <v>137209</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0359424283037359</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02924355315052682</v>
+        <v>0.02950656960508927</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04296836253420325</v>
+        <v>0.04366596078450518</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>196</v>
@@ -2544,19 +2544,19 @@
         <v>210334</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>184061</v>
+        <v>182254</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>243813</v>
+        <v>241147</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03475542272391902</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03041415712197801</v>
+        <v>0.03011552136133221</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04028751609433771</v>
+        <v>0.0398469765012989</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>2812192</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2789059</v>
+        <v>2790240</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2830741</v>
+        <v>2832067</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9665264984710531</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9585759749037449</v>
+        <v>0.9589818837404953</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9729018071969884</v>
+        <v>0.9733573322825817</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2806</v>
@@ -2594,19 +2594,19 @@
         <v>3029303</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3007226</v>
+        <v>3005034</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3050353</v>
+        <v>3049526</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.964057571696264</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9570316374657968</v>
+        <v>0.9563340392154941</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9707564468494732</v>
+        <v>0.9704934303949104</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5446</v>
@@ -2615,19 +2615,19 @@
         <v>5841494</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5808015</v>
+        <v>5810681</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5867767</v>
+        <v>5869574</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9652445772760809</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9597124839056623</v>
+        <v>0.960153023498701</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.969585842878022</v>
+        <v>0.9698844786386678</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>5948</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2026</v>
+        <v>2841</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11953</v>
+        <v>12758</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01300446828440242</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004429604411512005</v>
+        <v>0.006210564223888087</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02613119362073933</v>
+        <v>0.02789223603978017</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -2979,19 +2979,19 @@
         <v>17592</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10197</v>
+        <v>10535</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>27280</v>
+        <v>28458</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02753637284637703</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01596088931619055</v>
+        <v>0.01648921421807727</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04270090061578413</v>
+        <v>0.04454431575632219</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>22</v>
@@ -3000,19 +3000,19 @@
         <v>23541</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>15254</v>
+        <v>14566</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>34841</v>
+        <v>35683</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02147305786528889</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01391392860799198</v>
+        <v>0.01328618412726342</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03178088829912848</v>
+        <v>0.03254900898297818</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>451471</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>445466</v>
+        <v>444661</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>455393</v>
+        <v>454578</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9869955317155976</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9738688063792602</v>
+        <v>0.9721077639602194</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9955703955884879</v>
+        <v>0.9937894357761119</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>566</v>
@@ -3050,19 +3050,19 @@
         <v>621282</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>611594</v>
+        <v>610416</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>628677</v>
+        <v>628339</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.972463627153623</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9572990993842159</v>
+        <v>0.9554556842436781</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9840391106838094</v>
+        <v>0.9835107857819227</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1021</v>
@@ -3071,19 +3071,19 @@
         <v>1072752</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1061452</v>
+        <v>1060610</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1081039</v>
+        <v>1081727</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9785269421347111</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9682191117008716</v>
+        <v>0.967450991017022</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.986086071392008</v>
+        <v>0.9867138158727365</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>61424</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>46867</v>
+        <v>48392</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>79137</v>
+        <v>79651</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03620407923721999</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02762409088342213</v>
+        <v>0.02852291954472842</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04664445195296795</v>
+        <v>0.04694706927308288</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>69</v>
@@ -3196,19 +3196,19 @@
         <v>67901</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>52660</v>
+        <v>54582</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>85669</v>
+        <v>84553</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03973810811349488</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03081815596148664</v>
+        <v>0.03194307002255056</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05013630700993479</v>
+        <v>0.04948340950913985</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>128</v>
@@ -3217,19 +3217,19 @@
         <v>129325</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>109073</v>
+        <v>109062</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>153275</v>
+        <v>154814</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03797737936189924</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03203019047125078</v>
+        <v>0.03202688112007114</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04501031010544504</v>
+        <v>0.04546242814345953</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>1635181</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1617468</v>
+        <v>1616954</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1649738</v>
+        <v>1648213</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.96379592076278</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.953355548047032</v>
+        <v>0.9530529307269171</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9723759091165779</v>
+        <v>0.9714770804552716</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1577</v>
@@ -3267,19 +3267,19 @@
         <v>1640818</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1623050</v>
+        <v>1624166</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1656059</v>
+        <v>1654137</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9602618918865051</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9498636929900651</v>
+        <v>0.9505165904908601</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9691818440385133</v>
+        <v>0.9680569299774494</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3117</v>
@@ -3288,19 +3288,19 @@
         <v>3275999</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3252049</v>
+        <v>3250510</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3296251</v>
+        <v>3296262</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9620226206381007</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.954989689894555</v>
+        <v>0.9545375718565404</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9679698095287492</v>
+        <v>0.9679731188799289</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>8392</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4022</v>
+        <v>3971</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16438</v>
+        <v>16149</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01680960489015746</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00805533632962244</v>
+        <v>0.007954212708790188</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03292633269155636</v>
+        <v>0.03234609202160773</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -3413,19 +3413,19 @@
         <v>15638</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8497</v>
+        <v>8363</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25718</v>
+        <v>24820</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03076504254387189</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01671565980925802</v>
+        <v>0.01645297734762827</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05059347305792852</v>
+        <v>0.04882735340623962</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>22</v>
@@ -3434,19 +3434,19 @@
         <v>24031</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>15983</v>
+        <v>16055</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>36267</v>
+        <v>36221</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02385017383761197</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01586336176015471</v>
+        <v>0.01593433504366993</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03599486897415402</v>
+        <v>0.03594879997829674</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>490852</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>482806</v>
+        <v>483095</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>495222</v>
+        <v>495273</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9831903951098425</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9670736673084438</v>
+        <v>0.9676539079783913</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9919446636703776</v>
+        <v>0.9920457872912097</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>474</v>
@@ -3484,19 +3484,19 @@
         <v>492682</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>482602</v>
+        <v>483500</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>499823</v>
+        <v>499957</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9692349574561281</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9494065269420714</v>
+        <v>0.9511726465937604</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.983284340190742</v>
+        <v>0.9835470226523717</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>925</v>
@@ -3505,19 +3505,19 @@
         <v>983533</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>971297</v>
+        <v>971343</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>991581</v>
+        <v>991509</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.976149826162388</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9640051310258464</v>
+        <v>0.9640512000217032</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9841366382398453</v>
+        <v>0.9840656649563301</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>75765</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>59662</v>
+        <v>59580</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>93245</v>
+        <v>97311</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02855520079409034</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02248631792756342</v>
+        <v>0.02245536969105537</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03514327420486978</v>
+        <v>0.03667575679378747</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>99</v>
@@ -3630,19 +3630,19 @@
         <v>101132</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>83144</v>
+        <v>84253</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>123632</v>
+        <v>123185</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03541144898532846</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02911290707546047</v>
+        <v>0.02950128390343312</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04328966479127545</v>
+        <v>0.04313318317957628</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>172</v>
@@ -3651,19 +3651,19 @@
         <v>176897</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>151963</v>
+        <v>152098</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>204692</v>
+        <v>206063</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0321094213972269</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02758365287554539</v>
+        <v>0.02760808739940067</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03715461205412342</v>
+        <v>0.03740354167639633</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>2577504</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2560024</v>
+        <v>2555958</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2593607</v>
+        <v>2593689</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9714447992059096</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9648567257951299</v>
+        <v>0.9633242432062125</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9775136820724366</v>
+        <v>0.9775446303089447</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2617</v>
@@ -3701,19 +3701,19 @@
         <v>2754781</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2732281</v>
+        <v>2732728</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2772769</v>
+        <v>2771660</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9645885510146716</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9567103352087242</v>
+        <v>0.956866816820424</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9708870929245396</v>
+        <v>0.970498716096567</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5063</v>
@@ -3722,19 +3722,19 @@
         <v>5332285</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5304490</v>
+        <v>5303119</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5357219</v>
+        <v>5357084</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9678905786027731</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9628453879458768</v>
+        <v>0.9625964583236037</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9724163471244547</v>
+        <v>0.9723919126005993</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>12062</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6724</v>
+        <v>6529</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22413</v>
+        <v>21292</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02245073075505136</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01251503167900401</v>
+        <v>0.01215266504726577</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04171500828172323</v>
+        <v>0.03962859310758982</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>39</v>
@@ -4086,19 +4086,19 @@
         <v>24047</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16534</v>
+        <v>17513</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>32214</v>
+        <v>33390</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03064937175985262</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02107357515867797</v>
+        <v>0.02232110993531508</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04105834042399157</v>
+        <v>0.04255768511197484</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>51</v>
@@ -4107,19 +4107,19 @@
         <v>36110</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>27061</v>
+        <v>26624</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>47726</v>
+        <v>47827</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02731700690838882</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02047157644064306</v>
+        <v>0.0201409250996717</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03610494535941265</v>
+        <v>0.03618101968125358</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>525217</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>514866</v>
+        <v>515987</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>530555</v>
+        <v>530750</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9775492692449487</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9582849917182767</v>
+        <v>0.9603714068924104</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.987484968320996</v>
+        <v>0.9878473349527342</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1331</v>
@@ -4157,19 +4157,19 @@
         <v>760545</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>752378</v>
+        <v>751202</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>768058</v>
+        <v>767079</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9693506282401474</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9589416595760079</v>
+        <v>0.9574423148880251</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9789264248413218</v>
+        <v>0.9776788900646849</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1967</v>
@@ -4178,19 +4178,19 @@
         <v>1285761</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1274145</v>
+        <v>1274044</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1294810</v>
+        <v>1295247</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9726829930916114</v>
+        <v>0.9726829930916112</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9638950546405873</v>
+        <v>0.9638189803187462</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9795284235593568</v>
+        <v>0.9798590749003281</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>82799</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>62339</v>
+        <v>62410</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>110671</v>
+        <v>109081</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03857439602313585</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02904257087615802</v>
+        <v>0.02907547907947872</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05155951607111229</v>
+        <v>0.05081873890597784</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>100</v>
@@ -4303,19 +4303,19 @@
         <v>91684</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>74695</v>
+        <v>73530</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>114514</v>
+        <v>114938</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04343997003551443</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03539033542566182</v>
+        <v>0.03483847482876717</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05425664495799923</v>
+        <v>0.05445777320342511</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>160</v>
@@ -4324,19 +4324,19 @@
         <v>174483</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>149523</v>
+        <v>145316</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>209680</v>
+        <v>208942</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04098667477858015</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03512348614301762</v>
+        <v>0.03413516331854741</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04925445693646743</v>
+        <v>0.04908128127532478</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>2063679</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2035807</v>
+        <v>2037397</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2084139</v>
+        <v>2084068</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9614256039768643</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.948440483928888</v>
+        <v>0.9491812610940221</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.970957429123842</v>
+        <v>0.9709245209205212</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2749</v>
@@ -4374,19 +4374,19 @@
         <v>2018908</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1996078</v>
+        <v>1995654</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2035897</v>
+        <v>2037062</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9565600299644854</v>
+        <v>0.9565600299644855</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9457433550420009</v>
+        <v>0.9455422267965747</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9646096645743382</v>
+        <v>0.9651615251712328</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4612</v>
@@ -4395,19 +4395,19 @@
         <v>4082587</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4047390</v>
+        <v>4048128</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4107547</v>
+        <v>4111754</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9590133252214198</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9507455430635325</v>
+        <v>0.9509187187246754</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9648765138569823</v>
+        <v>0.9658648366814525</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>21695</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13535</v>
+        <v>13409</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>31996</v>
+        <v>32704</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03091135953698658</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01928565570788951</v>
+        <v>0.01910502238633465</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04558869165968042</v>
+        <v>0.04659689177749259</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>42</v>
@@ -4520,19 +4520,19 @@
         <v>36380</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>25836</v>
+        <v>26599</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>48725</v>
+        <v>49290</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.05021973168474506</v>
+        <v>0.05021973168474505</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03566525200306771</v>
+        <v>0.03671825731630475</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06726151391421806</v>
+        <v>0.06804198552492358</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>63</v>
@@ -4541,19 +4541,19 @@
         <v>58075</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>45494</v>
+        <v>43716</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>73913</v>
+        <v>75600</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0407183336780679</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03189759832996616</v>
+        <v>0.03065087083464895</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05182297398992464</v>
+        <v>0.05300631482766648</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>680146</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>669845</v>
+        <v>669137</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>688306</v>
+        <v>688432</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9690886404630135</v>
+        <v>0.9690886404630132</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9544113083403198</v>
+        <v>0.9534031082225074</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9807143442921107</v>
+        <v>0.9808949776136654</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>946</v>
@@ -4591,19 +4591,19 @@
         <v>688033</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>675688</v>
+        <v>675123</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>698577</v>
+        <v>697814</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.949780268315255</v>
+        <v>0.9497802683152549</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9327384860857819</v>
+        <v>0.9319580144750766</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9643347479969322</v>
+        <v>0.9632817426836953</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1595</v>
@@ -4612,19 +4612,19 @@
         <v>1368179</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1352341</v>
+        <v>1350654</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1380760</v>
+        <v>1382538</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9592816663219321</v>
+        <v>0.959281666321932</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9481770260100755</v>
+        <v>0.9469936851723334</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9681024016700339</v>
+        <v>0.9693491291653509</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>116556</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>92258</v>
+        <v>92300</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>143878</v>
+        <v>141487</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03442708253576574</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02725002447116317</v>
+        <v>0.0272624858815982</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0424971292263809</v>
+        <v>0.04179081957515512</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>181</v>
@@ -4737,19 +4737,19 @@
         <v>152111</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>131197</v>
+        <v>129627</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>178322</v>
+        <v>179992</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.04202432785336963</v>
+        <v>0.04202432785336962</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03624635036098531</v>
+        <v>0.03581262645568085</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0492657260868366</v>
+        <v>0.04972716260774483</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>274</v>
@@ -4758,19 +4758,19 @@
         <v>268667</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>235718</v>
+        <v>235455</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>306469</v>
+        <v>308389</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03835259271470833</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03364899507961845</v>
+        <v>0.0336115297754663</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04374882400935736</v>
+        <v>0.04402285159332203</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>3269042</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3241720</v>
+        <v>3244111</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3293340</v>
+        <v>3293298</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9655729174642342</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9575028707736185</v>
+        <v>0.958209180424845</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9727499755288366</v>
+        <v>0.9727375141184018</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5026</v>
@@ -4808,19 +4808,19 @@
         <v>3467486</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3441275</v>
+        <v>3439605</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3488400</v>
+        <v>3489970</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9579756721466305</v>
+        <v>0.9579756721466303</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9507342739131633</v>
+        <v>0.9502728373922551</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9637536496390147</v>
+        <v>0.9641873735443188</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8174</v>
@@ -4829,19 +4829,19 @@
         <v>6736528</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6698726</v>
+        <v>6696806</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6769477</v>
+        <v>6769740</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9616474072852916</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9562511759906428</v>
+        <v>0.9559771484066779</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9663510049203817</v>
+        <v>0.9663884702245337</v>
       </c>
     </row>
     <row r="15">
